--- a/Iceberg-Lettuce.xlsx
+++ b/Iceberg-Lettuce.xlsx
@@ -9,13 +9,31 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Tech Lead Asset List:</t>
+  </si>
+  <si>
+    <t>Sound Lead Asset List:</t>
+  </si>
+  <si>
+    <t>Art Lead Asset List</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -264,15 +282,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>